--- a/biology/Médecine/Mamelon_invaginé/Mamelon_invaginé.xlsx
+++ b/biology/Médecine/Mamelon_invaginé/Mamelon_invaginé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mamelon_invagin%C3%A9</t>
+          <t>Mamelon_invaginé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un mamelon invaginé (parfois appelé mamelon ombiliqué ou mamelon  inversé) est une situation où le mamelon, au lieu de pointer à l'extérieur, est rétracté dans la poitrine. Plus précisément, on parle d'un mamelon ombiliqué ou inversé lorsque l'inversion est fixe, et de mamelon invaginé ou rétracté lorsqu'il est possible de l'extérioriser en le pinçant légèrement[1]. Les hommes et les femmes sont susceptibles d'avoir des mamelons inversés.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un mamelon invaginé (parfois appelé mamelon ombiliqué ou mamelon  inversé) est une situation où le mamelon, au lieu de pointer à l'extérieur, est rétracté dans la poitrine. Plus précisément, on parle d'un mamelon ombiliqué ou inversé lorsque l'inversion est fixe, et de mamelon invaginé ou rétracté lorsqu'il est possible de l'extérioriser en le pinçant légèrement. Les hommes et les femmes sont susceptibles d'avoir des mamelons inversés.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mamelon_invagin%C3%A9</t>
+          <t>Mamelon_invaginé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Causes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'invagination est due à des canaux galactophores trop courts ou enroulés sur eux-mêmes. L'origine la plus fréquente est de nature congénitale. Cette invagination peut toutefois avoir d'autres origines : cancer du sein ou abcès sous-alvéolaire[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'invagination est due à des canaux galactophores trop courts ou enroulés sur eux-mêmes. L'origine la plus fréquente est de nature congénitale. Cette invagination peut toutefois avoir d'autres origines : cancer du sein ou abcès sous-alvéolaire.
 Environ 10 à 20 % des femmes sont nées avec cette condition.
 </t>
         </is>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mamelon_invagin%C3%A9</t>
+          <t>Mamelon_invaginé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Stades</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il y a trois stades de mamelons inversés, défini par la facilité à déployer le mamelon et le degré de fibrose présent ainsi que les dégâts causés aux canaux galactophores.
 Le stade 1 est attribué aux mamelons qui peuvent être facilement sortis, en pressant la zone aréolaire avec les doigts. Ils maintiennent leur position et rarement rétractent, ils peuvent également sortir sans aucune manipulation. Le canal galactophore n'est habituellement pas endommagé et l'allaitement est possible. On estime qu'il n'y a pas ou peu de fibrose dans ce cas. 
